--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1533006.016466486</v>
+        <v>1525989.001574775</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.7627700121621</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>101.3341794774131</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>101.7806877295493</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>37.83808333974875</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>321.3409444478008</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9524318238186</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>84.50523295012287</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>13.15972490571525</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>117.611794457288</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>20.33297654915542</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273781</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896902</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>74.42841042764303</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056508</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>197.3886277057043</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>129.4106056624395</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,13 +2298,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>105.6571329437499</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>58.31291820681822</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>119.8338438389643</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>104.435614114766</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>66.65095293175497</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>115.595386901653</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>96.71233187893839</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>45.37449962547137</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>37.56516399334276</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>64.34190763938523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.7861096747049</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>91.33209909790605</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>157.2425576766696</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.5906791667248</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>89.09646007723597</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>567.286643657864</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="D2" t="n">
-        <v>567.286643657864</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>567.286643657864</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>156.3007388682565</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.6879402326646</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>156.7517573047577</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629043</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2092.477155601806</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="C5" t="n">
-        <v>2092.477155601806</v>
+        <v>1700.959030454822</v>
       </c>
       <c r="D5" t="n">
-        <v>1734.211456995055</v>
+        <v>1342.693331848072</v>
       </c>
       <c r="E5" t="n">
-        <v>1348.423204396811</v>
+        <v>956.9050792498276</v>
       </c>
       <c r="F5" t="n">
-        <v>937.4372996072036</v>
+        <v>545.9191744602201</v>
       </c>
       <c r="G5" t="n">
-        <v>519.4734915053905</v>
+        <v>531.995770398811</v>
       </c>
       <c r="H5" t="n">
-        <v>192.2787715413933</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y5" t="n">
-        <v>2092.477155601806</v>
+        <v>2069.921547395234</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>471.4038777286579</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>321.2872383163221</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>321.2872383163221</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>321.2872383163221</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>321.2872383163221</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1780.41262192169</v>
+        <v>1194.175505447094</v>
       </c>
       <c r="C8" t="n">
-        <v>1780.41262192169</v>
+        <v>825.2129885066827</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.14692331494</v>
+        <v>466.9472898999322</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>81.15903730168793</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2523.320609167617</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2523.320609167617</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2170.551953897502</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2170.551953897502</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1780.41262192169</v>
+        <v>1580.775345511216</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>289.0740493317991</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>120.1378664038922</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>120.1378664038922</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>120.1378664038922</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>470.7225141620388</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>470.7225141620388</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405193</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155859</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080544</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822432</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256433</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701559</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619866</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441948</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.623401105981</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571605</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636243</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507007</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307618</v>
+        <v>1800.67826817104</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526315</v>
+        <v>2080.218333389737</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028583</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028583</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028583</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>786.082206476518</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706311</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336705</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028583</v>
+        <v>785.7936752260002</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028583</v>
+        <v>785.7936752260002</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,13 +5533,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643586</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.6350999123425</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C19" t="n">
-        <v>247.6350999123425</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123425</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123425</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>475.6246508103599</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>475.6246508103599</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X19" t="n">
-        <v>247.6350999123425</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.6350999123425</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5767,16 +5767,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494735</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>3930.221028783876</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>3640.803858746915</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>3640.803858746915</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>3640.803858746915</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5992,13 +5992,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>755.183133481126</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C25" t="n">
-        <v>586.2469505532191</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D25" t="n">
-        <v>586.2469505532191</v>
+        <v>515.5693341162774</v>
       </c>
       <c r="E25" t="n">
-        <v>586.2469505532191</v>
+        <v>515.5693341162774</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>368.6793866183671</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>755.183133481126</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>755.183133481126</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>755.183133481126</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y25" t="n">
-        <v>755.183133481126</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="26">
@@ -6223,19 +6223,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6247,10 +6247,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>743.3431626812556</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C28" t="n">
-        <v>574.4069797533488</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D28" t="n">
-        <v>574.4069797533488</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>426.4938861709556</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>426.4938861709556</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>964.1357418247858</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>964.1357418247858</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>964.1357418247858</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>964.1357418247858</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y28" t="n">
-        <v>743.3431626812556</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,22 +6451,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,13 +6481,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>644.1080300429513</v>
+        <v>510.7324460062429</v>
       </c>
       <c r="C31" t="n">
-        <v>644.1080300429513</v>
+        <v>341.796263078336</v>
       </c>
       <c r="D31" t="n">
-        <v>644.1080300429513</v>
+        <v>341.796263078336</v>
       </c>
       <c r="E31" t="n">
-        <v>644.1080300429513</v>
+        <v>341.796263078336</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>194.9063155804256</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>898.7925182488382</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>644.1080300429513</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W31" t="n">
-        <v>644.1080300429513</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X31" t="n">
-        <v>644.1080300429513</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y31" t="n">
-        <v>644.1080300429513</v>
+        <v>692.3809108364826</v>
       </c>
     </row>
     <row r="32">
@@ -6682,43 +6682,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.2699138005285</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>143.0499193648024</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>637.0624929440586</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W34" t="n">
-        <v>637.0624929440586</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X34" t="n">
-        <v>637.0624929440586</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y34" t="n">
-        <v>416.2699138005285</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,28 +6922,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6982,7 +6982,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4503.139178847509</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>4334.202995919602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>4184.086356507267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>4036.173262924874</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4684.787643677749</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4684.787643677749</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4684.787643677749</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4684.787643677749</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4684.787643677749</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4684.787643677749</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4684.787643677749</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,16 +7168,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7189,7 +7189,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899127</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1020.446367141521</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C40" t="n">
-        <v>851.5101842136145</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>701.3935448012787</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>553.4804512188856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>406.5905037209752</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>238.4151820407958</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1406.661625004462</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347408</v>
+        <v>1117.53298621802</v>
       </c>
       <c r="V40" t="n">
-        <v>1020.446367141521</v>
+        <v>862.8484980121333</v>
       </c>
       <c r="W40" t="n">
-        <v>1020.446367141521</v>
+        <v>862.8484980121333</v>
       </c>
       <c r="X40" t="n">
-        <v>1020.446367141521</v>
+        <v>634.8589471141159</v>
       </c>
       <c r="Y40" t="n">
-        <v>1020.446367141521</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>4702.023706674223</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U43" t="n">
-        <v>4412.895067887781</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>4158.210579681894</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>3868.793409644933</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>3640.803858746916</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>3640.803858746916</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>334.1034632786366</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>334.1034632786366</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>334.1034632786366</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>187.2135157807262</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7842,16 +7842,16 @@
         <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>1275.130855347408</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W46" t="n">
-        <v>1275.130855347408</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X46" t="n">
-        <v>1275.130855347408</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y46" t="n">
-        <v>1275.130855347408</v>
+        <v>503.0396462065435</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814836</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>306.1147370139951</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445223</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776768</v>
+        <v>253.7371603504732</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445223</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.012701199622825e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891868</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>92.8184106709848</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338631</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>54.74901561812374</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>157.1123926741515</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>146.4805103800782</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>87.10812981611302</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>46.65972462441333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>44.17985890344634</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>99.84261553162261</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>29.82566112127823</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>69.7812365844392</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>121.1190688379062</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>214.5724793304852</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>133.578902344218</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>9.127718692831252</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25602,10 +25602,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>130.2154619604832</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>64.30500338171964</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.24130101521254</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>77.39710838614161</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>933176.1663144791</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144792</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933176.1663144792</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>933176.1663144794</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>933176.1663144794</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144794</v>
       </c>
     </row>
     <row r="15">
@@ -26319,13 +26319,13 @@
         <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983652</v>
@@ -26337,25 +26337,25 @@
         <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="K2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983654</v>
       </c>
       <c r="M2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="O2" t="n">
+        <v>449683.4186983654</v>
+      </c>
+      <c r="P2" t="n">
         <v>449683.4186983652</v>
-      </c>
-      <c r="O2" t="n">
-        <v>449683.4186983653</v>
-      </c>
-      <c r="P2" t="n">
-        <v>449683.4186983653</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768957</v>
+        <v>525160.0364768966</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.611524223539163e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26478,34 +26478,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357502.8978572137</v>
+        <v>-357502.8978572136</v>
       </c>
       <c r="C6" t="n">
         <v>232464.9813573308</v>
       </c>
       <c r="D6" t="n">
-        <v>232464.9813573308</v>
+        <v>232464.9813573309</v>
       </c>
       <c r="E6" t="n">
-        <v>-182509.6133486864</v>
+        <v>-183484.2046084087</v>
       </c>
       <c r="F6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.8318684879</v>
       </c>
       <c r="G6" t="n">
-        <v>342650.4231282093</v>
+        <v>341675.8318684882</v>
       </c>
       <c r="H6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.8318684876</v>
       </c>
       <c r="I6" t="n">
-        <v>342650.4231282094</v>
+        <v>341675.831868488</v>
       </c>
       <c r="J6" t="n">
-        <v>166227.2039356166</v>
+        <v>165252.6126758949</v>
       </c>
       <c r="K6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.831868488</v>
       </c>
       <c r="L6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.831868488</v>
       </c>
       <c r="M6" t="n">
-        <v>207849.4078943724</v>
+        <v>206874.8166346506</v>
       </c>
       <c r="N6" t="n">
-        <v>342650.4231282094</v>
+        <v>341675.8318684879</v>
       </c>
       <c r="O6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.831868488</v>
       </c>
       <c r="P6" t="n">
-        <v>342650.4231282095</v>
+        <v>341675.8318684878</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054540999</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26767,16 +26767,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370132</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499017</v>
+        <v>540.926370499018</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.926370499018</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>112.9202716085209</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>312.4499905433819</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>46.83478528866308</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>97.12753845258948</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.581828316556312</v>
       </c>
       <c r="I5" t="n">
-        <v>14.97888442104266</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>71.66565589167227</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>393.7163208359962</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>133.6123730510013</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>125.0880714737758</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565516</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458547</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443615</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041486</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565516</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927183</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.040313094699</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647494</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104645</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127061</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813459</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458547</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710955</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361486</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298627</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263749</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892242</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0816769579135181</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349799</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.9101789549066</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341725</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980126</v>
+        <v>639.3093104120081</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714616</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209231</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187469</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221114</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081115</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502046</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349799</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953154</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560241</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>310.424377050466</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980126</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411079</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092013</v>
+        <v>460.830575281998</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209231</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187469</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>609.76039124675</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1525989.001574775</v>
+        <v>1530928.264423807</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10932610.52150617</v>
+        <v>10932610.52150618</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.7627700121621</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>163.1482332545336</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,16 +712,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>37.83808333974875</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>249.4237682275164</v>
       </c>
       <c r="H5" t="n">
-        <v>321.3409444478008</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>9.898682581535136</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>13.15972490571525</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>7.184211943599625</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>15.59458547084319</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>74.42841042764303</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>48.85174888144373</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>129.4106056624395</v>
+        <v>148.5981929409091</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2371,7 +2371,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>82.3946159906708</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>119.8338438389643</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>28.30910107930799</v>
       </c>
       <c r="D28" t="n">
-        <v>104.435614114766</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>24.14700674866013</v>
       </c>
       <c r="G31" t="n">
-        <v>96.71233187893839</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>45.37449962547137</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3480,19 +3480,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>11.88789990561101</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>91.33209909790605</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>276.1491823570823</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>89.09646007723597</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C2" t="n">
-        <v>1993.54646147304</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>92.16326802213086</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>92.16326802213086</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2069.921547395234</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C5" t="n">
-        <v>1700.959030454822</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D5" t="n">
-        <v>1342.693331848072</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E5" t="n">
-        <v>956.9050792498276</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F5" t="n">
-        <v>545.9191744602201</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G5" t="n">
-        <v>531.995770398811</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4600,19 +4600,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>2069.921547395234</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>2069.921547395234</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>403.6754589963297</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1194.175505447094</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="C8" t="n">
-        <v>825.2129885066827</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D8" t="n">
-        <v>466.9472898999322</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>81.15903730168793</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2416.228954779769</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2085.166067436198</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>1732.397412166084</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1358.931653905004</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511216</v>
+        <v>1358.931653905004</v>
       </c>
     </row>
     <row r="9">
@@ -4880,13 +4880,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598713</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5001,13 +5001,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5038,13 +5038,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5053,40 +5053,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701563</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766205</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.59991596447</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150545</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028589</v>
+        <v>726.8250614170372</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028589</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507007</v>
+        <v>1722.015429253976</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.67826817104</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389737</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>785.7936752260002</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C16" t="n">
-        <v>710.6134626728254</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D16" t="n">
-        <v>710.6134626728254</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.210845262961</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.210845262961</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W16" t="n">
-        <v>785.7936752260002</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X16" t="n">
-        <v>785.7936752260002</v>
+        <v>616.3407726382658</v>
       </c>
       <c r="Y16" t="n">
-        <v>785.7936752260002</v>
+        <v>395.5481934947356</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,31 +5533,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>711.072954880832</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>1113.513998854602</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="X19" t="n">
-        <v>1113.513998854602</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="Y19" t="n">
-        <v>892.7214197110717</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="20">
@@ -5749,16 +5749,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5767,16 +5767,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636253</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,19 +5974,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
@@ -5998,7 +5998,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>665.6859735286132</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C25" t="n">
-        <v>665.6859735286132</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D25" t="n">
-        <v>515.5693341162774</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E25" t="n">
-        <v>515.5693341162774</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>368.6793866183671</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="X25" t="n">
-        <v>665.6859735286132</v>
+        <v>646.6490309742555</v>
       </c>
       <c r="Y25" t="n">
-        <v>665.6859735286132</v>
+        <v>646.6490309742555</v>
       </c>
     </row>
     <row r="26">
@@ -6223,16 +6223,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6244,13 +6244,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C28" t="n">
-        <v>665.6859735286132</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6414,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y28" t="n">
-        <v>665.6859735286132</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>510.7324460062429</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C31" t="n">
-        <v>341.796263078336</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D31" t="n">
-        <v>341.796263078336</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="E31" t="n">
-        <v>341.796263078336</v>
+        <v>289.7833290482027</v>
       </c>
       <c r="F31" t="n">
-        <v>194.9063155804256</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6657,16 +6657,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W31" t="n">
-        <v>920.3704617344999</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X31" t="n">
-        <v>692.3809108364826</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y31" t="n">
-        <v>692.3809108364826</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6721,28 +6721,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>143.0499193648024</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>920.3704617344999</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>692.3809108364826</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,25 +6940,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>952.1277621221484</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>952.1277621221484</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>731.3351829786183</v>
       </c>
     </row>
     <row r="38">
@@ -7156,55 +7156,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7241,25 +7241,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1406.661625004462</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1117.53298621802</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V40" t="n">
-        <v>862.8484980121333</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W40" t="n">
-        <v>862.8484980121333</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X40" t="n">
-        <v>634.8589471141159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y40" t="n">
-        <v>414.0663679705859</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7393,31 +7393,31 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7435,13 +7435,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,25 +7478,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,13 +7660,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>503.0396462065435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>334.1034632786366</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>334.1034632786366</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>334.1034632786366</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>187.2135157807262</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7839,19 +7839,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.446367141521</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>731.0291971045608</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>503.0396462065435</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>503.0396462065435</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.421860962789</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>306.1147370139951</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>127.6461250100665</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504732</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776744</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>202.9900678812516</v>
       </c>
     </row>
     <row r="14">
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>92.8184106709848</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>176.8579065075934</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,22 +23943,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>157.1123926741515</v>
+        <v>137.9248053956819</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>97.4373641912665</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>46.65972462441333</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>138.9377200193198</v>
       </c>
       <c r="D28" t="n">
-        <v>44.17985890344634</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>121.2740412742711</v>
       </c>
       <c r="G31" t="n">
-        <v>69.7812365844392</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819411</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>121.1190688379062</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>274.63509843098</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>130.2154619604832</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>10.08817004149506</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542517</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>77.39710838614161</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>933176.1663144792</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144794</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144792</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>933176.1663144793</v>
+        <v>933176.1663144794</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>933176.1663144794</v>
+        <v>933176.1663144793</v>
       </c>
     </row>
     <row r="15">
@@ -26319,19 +26319,19 @@
         <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.418698365</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983652</v>
@@ -26343,19 +26343,19 @@
         <v>449683.4186983653</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="M2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="N2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
     </row>
     <row r="3">
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768966</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>2.611524223539163e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26527,43 +26527,43 @@
         <v>232464.9813573308</v>
       </c>
       <c r="D6" t="n">
-        <v>232464.9813573309</v>
+        <v>232464.9813573308</v>
       </c>
       <c r="E6" t="n">
-        <v>-183484.2046084087</v>
+        <v>-182607.0724746588</v>
       </c>
       <c r="F6" t="n">
-        <v>341675.8318684879</v>
+        <v>342552.9640022372</v>
       </c>
       <c r="G6" t="n">
-        <v>341675.8318684882</v>
+        <v>342552.9640022371</v>
       </c>
       <c r="H6" t="n">
-        <v>341675.8318684876</v>
+        <v>342552.9640022373</v>
       </c>
       <c r="I6" t="n">
-        <v>341675.831868488</v>
+        <v>342552.9640022373</v>
       </c>
       <c r="J6" t="n">
-        <v>165252.6126758949</v>
+        <v>166129.7448096443</v>
       </c>
       <c r="K6" t="n">
-        <v>341675.831868488</v>
+        <v>342552.9640022374</v>
       </c>
       <c r="L6" t="n">
-        <v>341675.831868488</v>
+        <v>342552.9640022372</v>
       </c>
       <c r="M6" t="n">
-        <v>206874.8166346506</v>
+        <v>207751.9487684002</v>
       </c>
       <c r="N6" t="n">
-        <v>341675.8318684879</v>
+        <v>342552.9640022374</v>
       </c>
       <c r="O6" t="n">
-        <v>341675.831868488</v>
+        <v>342552.9640022372</v>
       </c>
       <c r="P6" t="n">
-        <v>341675.8318684878</v>
+        <v>342552.9640022374</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26795,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>112.9202716085209</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>218.7821368177282</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>97.12753845258948</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>208.8197898846882</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="H5" t="n">
-        <v>2.581828316556312</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>157.4111196775158</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>393.7163208359962</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>244.0399555646897</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>63.37316471551392</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="11">
@@ -29754,7 +29754,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29906,7 +29906,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047527</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>639.3093104120081</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>438.0705020605326</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P15" t="n">
-        <v>460.830575281998</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35980,10 +35980,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36451,13 +36451,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36925,13 +36925,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37162,13 +37162,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
